--- a/freq_air_matrix.xlsx
+++ b/freq_air_matrix.xlsx
@@ -485,25 +485,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.471232876712329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.517808219178082</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="E2" t="n">
-        <v>6.909589041095891</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="F2" t="n">
-        <v>11.23287671232877</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0410958904109589</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0547945205479452</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.452054794520548</v>
+        <v>1.380821917808219</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.471232876712329</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.964383561643836</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="E3" t="n">
-        <v>5.775342465753424</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="F3" t="n">
-        <v>3.657534246575342</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.383561643835617</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="H3" t="n">
-        <v>7.471232876712329</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="I3" t="n">
-        <v>7.471232876712329</v>
+        <v>0.3945205479452055</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.517808219178082</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="C4" t="n">
-        <v>2.964383561643836</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.863013698630137</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="F4" t="n">
-        <v>3.087671232876712</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="G4" t="n">
-        <v>10.74520547945206</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="H4" t="n">
-        <v>8.517808219178082</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="I4" t="n">
-        <v>2.986301369863014</v>
+        <v>0.5917808219178082</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.909589041095891</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="C5" t="n">
-        <v>5.775342465753424</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="D5" t="n">
-        <v>7.863013698630137</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.087671232876712</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="G5" t="n">
-        <v>9.643835616438356</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="H5" t="n">
-        <v>6.909589041095891</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="I5" t="n">
-        <v>7.49041095890411</v>
+        <v>0.5917808219178082</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.23287671232877</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="C6" t="n">
-        <v>3.657534246575342</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.087671232876712</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="E6" t="n">
-        <v>8.087671232876712</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.210958904109589</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="H6" t="n">
-        <v>11.23287671232877</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="I6" t="n">
-        <v>4.087671232876712</v>
+        <v>0.7890410958904109</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0410958904109589</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.383561643835617</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="D7" t="n">
-        <v>10.74520547945206</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="E7" t="n">
-        <v>9.643835616438356</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="F7" t="n">
-        <v>6.210958904109589</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0410958904109589</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.75068493150685</v>
+        <v>1.380821917808219</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0547945205479452</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.471232876712329</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="D8" t="n">
-        <v>8.517808219178082</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="E8" t="n">
-        <v>6.909589041095891</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="F8" t="n">
-        <v>11.23287671232877</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0410958904109589</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.452054794520548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -699,25 +699,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.452054794520548</v>
+        <v>1.380821917808219</v>
       </c>
       <c r="C9" t="n">
-        <v>7.471232876712329</v>
+        <v>0.3945205479452055</v>
       </c>
       <c r="D9" t="n">
-        <v>2.986301369863014</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="E9" t="n">
-        <v>7.49041095890411</v>
+        <v>0.5917808219178082</v>
       </c>
       <c r="F9" t="n">
-        <v>4.087671232876712</v>
+        <v>0.7890410958904109</v>
       </c>
       <c r="G9" t="n">
-        <v>8.75068493150685</v>
+        <v>1.380821917808219</v>
       </c>
       <c r="H9" t="n">
-        <v>2.452054794520548</v>
+        <v>0.1972602739726027</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
